--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Projects\need_wrap_exe_file\mw_analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Projects\molecular_analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="molecular weight" sheetId="2" r:id="rId1"/>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -536,46 +536,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>36.096600000000002</v>
+        <v>136.91679999999999</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>92.452299999999994</v>
+        <v>199.18010000000001</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>136.91679999999999</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>199.18010000000001</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
         <v>400</v>
       </c>
     </row>
